--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\GLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D866860-4A9E-49E0-8EAB-DD008A194B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87006F0C-6BAA-4566-8999-B1ACB61A4DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BE29FF42-2422-46C0-8C6A-920A805DB89D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>Folder</t>
   </si>
@@ -235,6 +235,63 @@
   </si>
   <si>
     <t>Species decoding file used by previous publication using witness data.</t>
+  </si>
+  <si>
+    <t>gis/climate</t>
+  </si>
+  <si>
+    <t>Script generated climatic covariates.</t>
+  </si>
+  <si>
+    <t>gis/soil</t>
+  </si>
+  <si>
+    <t>gis/soilcov</t>
+  </si>
+  <si>
+    <t>gis/dem/tifs</t>
+  </si>
+  <si>
+    <t>Multilayer soil rasters by state.</t>
+  </si>
+  <si>
+    <t>Script generated.</t>
+  </si>
+  <si>
+    <t>ArcGIS exports of SSURGO data (https://nrcs.app.box.com/v/soils/folder/233398887779)</t>
+  </si>
+  <si>
+    <t>ArcGIS generated exports of soil covariates based on script summaries of SSURGO map units.</t>
+  </si>
+  <si>
+    <t>solar.tif</t>
+  </si>
+  <si>
+    <t>mi_dem_30_layers.tif</t>
+  </si>
+  <si>
+    <t>mi_dem_30_slope.tif</t>
+  </si>
+  <si>
+    <t>slope500.tif</t>
+  </si>
+  <si>
+    <t>SAGA generated from DEM</t>
+  </si>
+  <si>
+    <t>Solar insolation using 14 steps in SAGA.</t>
+  </si>
+  <si>
+    <t>SAGA slope and aspect layers.</t>
+  </si>
+  <si>
+    <t>SAGA shaded relief, positive topographic openess, and negative topographic openess.</t>
+  </si>
+  <si>
+    <t>Mean slope for 500 m radius neighborhood.</t>
+  </si>
+  <si>
+    <t>Script generated (mergecovariates.R).</t>
   </si>
 </sst>
 </file>
@@ -620,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D23809-6453-4F10-B737-9075247EE07E}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A6:A7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,6 +786,92 @@
       </c>
       <c r="D7" s="2" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +891,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\GLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87006F0C-6BAA-4566-8999-B1ACB61A4DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CBEB2B-8717-4A34-9958-E089DC13DD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BE29FF42-2422-46C0-8C6A-920A805DB89D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
   <si>
     <t>Folder</t>
   </si>
@@ -78,9 +78,6 @@
 Deines, J., J. McLachlan, A. Hamlin, D. Williams, and J. Peters. 2016. Ohio Public Land Survey (PLS) Witness Tree GIS Shapefile ver 0. Environmental Data Initiative. https://doi.org/10.6073/pasta/6c8ccb2a4e385f757abbb276987833d7 (Accessed 2024-02-15).'</t>
   </si>
   <si>
-    <t>georeferenced whitness tree data</t>
-  </si>
-  <si>
     <t>loopup table to determine if spodisol has a Bhs horizon</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>Multilayer soil rasters by state.</t>
   </si>
   <si>
-    <t>Script generated.</t>
-  </si>
-  <si>
     <t>ArcGIS exports of SSURGO data (https://nrcs.app.box.com/v/soils/folder/233398887779)</t>
   </si>
   <si>
@@ -292,6 +286,54 @@
   </si>
   <si>
     <t>Script generated (mergecovariates.R).</t>
+  </si>
+  <si>
+    <t>georeferenced witness tree data</t>
+  </si>
+  <si>
+    <t>SAGA generated from DEM and summed (mergecovariates.R).</t>
+  </si>
+  <si>
+    <t>Script generated (gathersoildata.R).</t>
+  </si>
+  <si>
+    <t>prism.tif</t>
+  </si>
+  <si>
+    <t>Monthly temperature (high/low) and precipitation for 1981-2010.</t>
+  </si>
+  <si>
+    <t>Downloaded from PRISM (https://prism.oregonstate.edu/normals/), but subsequently consolidated into single file via R scripts. Southern Appalachians winter monthly low temperatures were mosaiced with the 1971-2000 period due to error in 2010 model (PRISM disagrees that they are in error). This is outside the model area.</t>
+  </si>
+  <si>
+    <t>models</t>
+  </si>
+  <si>
+    <t>*.RDS</t>
+  </si>
+  <si>
+    <t>Script generated (e.g. model90.R)</t>
+  </si>
+  <si>
+    <t>gis/models90</t>
+  </si>
+  <si>
+    <t>Raw models by taxon name.</t>
+  </si>
+  <si>
+    <t>Raster niche models by taxon name.</t>
+  </si>
+  <si>
+    <t>Script generated (model90.R)</t>
+  </si>
+  <si>
+    <t>gis/transportation</t>
+  </si>
+  <si>
+    <t>*.zip</t>
+  </si>
+  <si>
+    <t>Transportation shapefiles by state, potentially to clean up road artifacts in DEM.</t>
   </si>
 </sst>
 </file>
@@ -677,17 +719,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D23809-6453-4F10-B737-9075247EE07E}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="4" width="45" customWidth="1"/>
+    <col min="3" max="3" width="101.85546875" customWidth="1"/>
+    <col min="4" max="4" width="77" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -726,38 +769,38 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,13 +808,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,99 +822,167 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
         <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
         <v>72</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -880,6 +991,7 @@
     <hyperlink ref="D5" r:id="rId2" xr:uid="{80B89E16-D209-40B6-882C-BE0B0AC5C048}"/>
     <hyperlink ref="D6" r:id="rId3" xr:uid="{1A86E3BB-5153-454A-ADAD-679E53D782D3}"/>
     <hyperlink ref="D7" r:id="rId4" xr:uid="{58D81BFF-E4F0-4B7F-A079-BF0D588B6B6D}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{746D2D93-B1AD-4216-AD60-F2D466AF02D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -891,7 +1003,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +1015,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -914,189 +1026,189 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\GLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CBEB2B-8717-4A34-9958-E089DC13DD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EFE548-AA07-4F57-BB01-3FDE6F8F2467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BE29FF42-2422-46C0-8C6A-920A805DB89D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BE29FF42-2422-46C0-8C6A-920A805DB89D}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
   <si>
     <t>Folder</t>
   </si>
@@ -334,6 +334,24 @@
   </si>
   <si>
     <t>Transportation shapefiles by state, potentially to clean up road artifacts in DEM.</t>
+  </si>
+  <si>
+    <t>GAM.R</t>
+  </si>
+  <si>
+    <t>NMDS.R</t>
+  </si>
+  <si>
+    <t>Maxext.R</t>
+  </si>
+  <si>
+    <t>Create NMDS biplot.</t>
+  </si>
+  <si>
+    <t>Run Maxent models</t>
+  </si>
+  <si>
+    <t>Run GAM models</t>
   </si>
 </sst>
 </file>
@@ -721,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D23809-6453-4F10-B737-9075247EE07E}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,11 +1017,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829BC710-CDCE-4183-8A3B-82FC5A9509CD}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,24 +1165,24 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1172,10 +1190,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1183,10 +1201,10 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1194,26 +1212,59 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C18" xr:uid="{829BC710-CDCE-4183-8A3B-82FC5A9509CD}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
       <sortCondition ref="A1:A18"/>
     </sortState>
   </autoFilter>
